--- a/tampung.xlsx
+++ b/tampung.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,10 +486,20 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Error_Cosine</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Error_Jaccard</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>MAE_Cos2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>MAE_Jac2</t>
         </is>
@@ -497,44 +507,44 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bareskrim Polri Akan Panggil Petinggi Afi Farma Soal Kasus Gagal Ginjal Akut</t>
+          <t>Jelang KTT G20, PLN Pamerkan Dua PLTS dan 33 PV Rooftop di Bali</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[19, 21, 20, 22, 23]</t>
+          <t>[0, 1, 2, 4, 5]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>bareskrim polri panggil petinggi afi farma soal kasus gagal ginjal akut bareskrim polri segera panggil petinggi pt afi farma kait kasus gagal ginjal akut tahu kasus gagal ginjal akut duga asal obat sirup kandung etilen glikol eg dietilen glikol deg produksi pt afi farma bareskrim polri laku periksa pt afi farma pihak bpom temu ada obat sirup sebab gagal ginjal akut temu lalu pihak bpom laku periksa tiga gudang milik pt afi farma penggerebakan polisi sita bahan baku obat kandung eg deg penny dapat obat rupa temu bpom indikasi kandung zat bahaya salah satu dampak gagal ginjal akut obat afi farma sebut diri paracetamol drop sirop kandung cair kimia bahaya lebih ambang batas dapat sebab gagal ginjal akut gagal ginjal akut panggil polri bareskrim polri kasus</t>
+          <t>jelang ktt g pln pamer plts pv rooftop bal pt pln persero operasi proyek bangkit listrik tenaga surya plts solar photovoltaic pv rooftop plts atap lokasi gedung pln grup showcase transisi energi temu konferensi tingkat ktt g bal wujud komitmen indonesia selenggara tinggi temu g pasok energi bersih gubernur bal wayan koster apresiasi langkah pln transisi energi bersih plts g pln</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Berita Utama</t>
+          <t>Nasional</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Gagal Ginjal Akut, Dipanggil, Polri, bareskrim polri, kasus</t>
+          <t>plts, g20, PLN</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[21, 22, 19, 20, 23]</t>
+          <t>[0, 5, 4, 1, 2]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[21 19 22 20 23]</t>
+          <t>[5 4 0 1 2]</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -543,53 +553,63 @@
       <c r="K2" t="n">
         <v>0</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Begini Modus Perusahaan Pemasok Bahan Baku Sirup yang Sebabkan Kasus Gagal Ginjal Akut, Aksinya Tak Terpuji..</t>
+          <t>Muncul Dukungan Jokowi Jadi Ketum PDIP 2024, PPD Ikut Beri Komentar</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[21, 20, 18, 22, 23]</t>
+          <t>[13, 14, 15, 17, 16]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>begini modus usaha pasok bahan baku sirup sebab kasus gagal ginjal akut aksi tak puji bareskrim polri ungkap modus telah laku cv samudra chemical pasok bahan baku obat sirup pt afi farma kasus gagal ginjal akut sebab ratus anak indonesia tinggal dunia karo penmas divisi humas polri brigjen pol ahmad ramadhan jelas hasil lidi temu barang bukti buah drum isi senyawa propilen glikol pg etilen glikol eg duga pes pt afi farma jelas cv samudra chemical duga guna drum label dow palsu kemudian duga guna oplos zat cemar eg sehingga kandung lebih ambang batas telah pakat kasus gagal ginjal akut terus dilidik bareskrim polri usaha periksa yakni cv samudra chemical ini dikarenakanya temu puluh drum isi etilen glikol eg dietilen glikol deg kasus gagal ginjal gagal ginjal akut modus usaha bareskrim polri</t>
+          <t>muncul dukung jokowi tum pdip ppd komentar ketua awal pancasila damai ppd washinton p situmorang nilai mekanisme pilih kader pdi juang jalan patut apresiasi partai cetak kader kader kualitas bukti rekam jejak bu risma ganjar azwar anaz jokowi washinton jumat oktober washinton bukti mekanisme partai jalan apresiasi nyata kait muncul dukung presiden joko widodo jokowi ketua pdip pdi juang pdip jokowi</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Berita utama</t>
+          <t>Politika</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Kasus Gagal Ginjal, Gagal Ginjal Akut, Modus, Perusahaan, Bareskrim Polri</t>
+          <t>PDI perjuangan, PDIP, Jokowi</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[21, 18, 23, 20, 22]</t>
+          <t>[17, 14, 13, 16, 15]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[21 22 18 23 20]</t>
+          <t>[17 14 13 15 16]</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -598,53 +618,63 @@
       <c r="K3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kasus Gagal Ginjal Akut, Ada Dua Perusahaan Farmasi Dilaporkan ke Bareskrim Polri</t>
+          <t>Bepesan Agar Golkar Jangan Sembrono Pilih Capres, Jokowi: Silakan Terjemahkan Sendiri...</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[19, 21, 18, 22, 23]</t>
+          <t>[12, 14, 15, 16, 17]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>kasus gagal ginjal akut usaha farmasi lapor bareskrim polri badan awas obat makan bpom lapor usaha farmasi bareskrim polri kait langgar atur memgenai kasus gagal ginjal akut anak kepala bpom penny k lukito jelas dua usaha farmasi lapor telah langgar cara buat obat baik cpob tiga usaha gerak bidang farmasi langgar cpob pt yarindo farmatama pt universal pharmaceutical industries pt afi farma kini tiga usaha sedang proses tetap pidana bukti guna bahan baku senyawa kimia lebih ambang batas aman kait rebak sakit gagal ginjal akut anak polisi memenaggil beberapa jabat badan awas obat makan bpom tahu kasus rebak sakit gagal ginjal akut anak polri tengah laku sidi sidi laku polri temu cukup bukti ada duga tindak pidana kasus gagal ginjal akut anak karena bareskrim naik status lidi tahap sidi kasus gagal ginjal gagal ginjal akut lapor usaha bareskrim polri farmasi</t>
+          <t>bepesan golkar sembrono pilih capres jokowi sila terjemah harap partai golkar cermat tentu calon presiden calon wakil presiden hadap pilih presiden joko widodo masuk jokowi tersamapaikan hadir acara puncak ulang partai golkar hall c jiexpo mayor jakarta pusat golkar cermat teliti hati hati sembrono deklarasi calon presiden wakil presiden jokowi jakarta jumat oktober malam pantau ingat puncak hut partai golkar hadir tokoh partai wakil presiden mantan tum partai golkar jusuf kalla mantan tum partai golkar akbar tanjung aburizal bakrie capres golkar jokowi</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Berita Utama</t>
+          <t>Politika</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Kasus Gagal Ginjal, Gagal Ginjal Akut, dilaporkan, perusahaan, bareskrim polri, farmasi</t>
+          <t>Capres, Golkar, Jokowi</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[21, 22, 18, 23, 19]</t>
+          <t>[14, 12, 16, 15, 17]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[21 22 18 23 19]</t>
+          <t>[14 12 15 17 16]</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -653,53 +683,63 @@
       <c r="K4" t="n">
         <v>0</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pemasok Bahan Pelarut Sirup yang Diduga Sebabkan Gagal Ginjal Akut Akan Diperiksa Polri</t>
+          <t>Pesan Jokowi Saat Hadiri Acara Puncak HUT ke-58 Partai Golkar: Pilih Capres Jangan Sembrono...</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[19, 20, 18, 22, 23]</t>
+          <t>[12, 13, 15, 16, 17]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>pasok bahan larut sirup duga sebab gagal ginjal akut periksa polri kasus gagal ginjal akut terus dilidik bareskrim polri bareskrim polri laku periksa pasok bahan larut obat sirup usaha periksa yakni cv samudra chemical ini dikarenakanya temu puluh drum isi etilen glikol eg dietilen glikol deg usaha pihak bareskrim polri periksa jumlah masyarakat sekitat lokasi juga masuk saksi berinidial e rupa anak milik cv samudra chemical badan awas obat makan bpom lapor usaha farmasi bareskrim polri kait langgar atur memgenai kasus gagal ginjal akut anak kepala bpom penny k lukito jelas usaha farmasi lapor telah langgar cara buat obat baik cpob tiga usaha gerak bidang farmasi langgar cpob pt yarindo farmatama pt universal pharmaceutical industries pt afi farma kini tiga usaha sedang proses tetap pidana bukti guna bahan baku senyawa kimia lebih ambang batas aman tahu kasus rebak sakit gagal ginjal akut anak polri tengah laku sidi sidi laku polri temu cukup bukti ada duga tindak pidana kasus gagal ginjal akut anak karena bareskrim naik status lidi tahap sidi periksa akut gagal ginjal bareskrim polri kasus</t>
+          <t>pesan jokowi hadir acara puncak hut partai golkar pilih capres sembrono presiden joko widodo partai golkar cermat tentu calon presiden calon wakil presiden hadap pilih saran jokowi lontar hadir acara puncak ulang partai golkar hall c jiexpo mayor jakarta pusat golkar cermat teliti hati hati sembrono deklarasi calon presiden wakil presiden jokowi jakarta jumat oktober malam ingat puncak hut partai golkar hadir tokoh partai wakil presiden mantan tum partai golkar jusuf kalla mantan tum partai golkar akbar tanjung aburizal bakrie capres golkar jokowi</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Berita Utama</t>
+          <t>Politika</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>periksa, akut, gagal ginjal, bareskrim polri, kasus</t>
+          <t>Capres, Golkar, Jokowi</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[20, 19, 18, 23, 22]</t>
+          <t>[13, 12, 16, 15, 17]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[20 19 18 23 22]</t>
+          <t>[13 12 15 17 16]</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -708,33 +748,43 @@
       <c r="K5" t="n">
         <v>0</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Siap-siap, Bareskrim Polri Segera Umumkan Tersangka Kasus Gagal Ginjal Akut</t>
+          <t>Isu Hubungan Renggang Dengan Jokowi, Megawati Hanya Tersenyum</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[19, 21, 20, 18, 23]</t>
+          <t>[12, 13, 14, 15, 16]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>siap siap bareskrim polri segera umum sangka kasus gagal ginjal akut bareskrim polri segera umum sangka kasus gagal ginjal akut sebab ratus anak tinggal dunia tim sidik gabung bareskrim polri bpom naik status perkara sidi direktur tindak pidana tentu dirtipidter bareskrim polri brigjen pol pipit rismanto kata tingkat status kasus lidi sidi pt afi pharma usaha farmasi pt afi pharma duga produksi sedia farmasi jenis obat sirop kandung etilen glikol eg lebih ambang batas harus mg jelas pt afi pharma produksi sedia obat jenis sirop merk paracetamol obat generik kandung eg lebih abang batas laku uji laboratorium badan awas obat makan bpom mg sidi kasus gagal ginjal sidik polri produsen obat sirop pt afi pharma dua industri farmasi lain temu guna bahan baku propilen glikol lampau ambang batas aman tangan bpom akut sangka gagal ginjal polri bareskrim polri</t>
+          <t>isu hubung renggang jokowi megawati senyum sekretaris jenderal dpp pdi juang pdip hasto kristiyanto buka suara isu kereta hubung megawati soekarnoputri presiden joko widodo hasto megawati senyum eleng kepala isu kait hubung jokowi hasto aku pramono anung saksi lantik dewan hormat urus bpip tokoh bicara akrab acara lantik presiden jokowi megawati bicara mata mobil presiden gandeng tangan megawati hasto isu hubung jokowi megawati muncul orang orang tanggung megawati pdip jokowi</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -744,17 +794,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>akut, tersangka, gagal ginjal, polri, bareskrim polri</t>
+          <t>Megawati, PDIP, Jokowi</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[18, 20, 21, 23, 19]</t>
+          <t>[12, 16, 13, 14, 15]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[20 19 21 18 23]</t>
+          <t>[12 14 16 13 15]</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -763,33 +813,43 @@
       <c r="K6" t="n">
         <v>0</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Labfor Polri Turun Tangan Soal Dugaan Gagal Ginjal Akut Anak, Beberapa Pasien Diperiksa</t>
+          <t>Bareskrim Polri Akan Panggil Petinggi Afi Farma Soal Kasus Gagal Ginjal Akut</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[18, 19, 20, 21, 22]</t>
+          <t>[19, 21, 20, 22, 23]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>labfor polri turun tangan soal duga gagal ginjal akut anak beberapa pasien periksa bareskrim polri laku lidi soal kasus gagal ginjal akut anak ini labfor polri turun tangan laku periksa soal gagal ginjal akut anak labfor polri sedang ajar hasil sampel pasien kini jalan awat medis jumlah rumah sakit proses lidi bpom kemenkes sidik ajar hasil sampel laboratorium seluruh indonesia pasien gagal ginjal jelas senin oktober kutip fin co id dedi sampel pasien gagal ginjal akut kumpul tim gabung bakal bawa jakarta uji labfor polri telusur sebab gagal ginjal alami pasien juga sebut pihak laku dalam dua usaha farmasi periksa kait edar obat duga kandung etilen glikol eg dietilen glikol deg lebih ambang batas dengan ini total ada tiga usaha farmasi periksa bareskrim polri kena obat sirup duga sebab gagal ginjal akut ini memang sidik terus dalam duga lalai telah laku usaha sidik lengkap bukti penuh unsur duga tindak pidana akut anak gagal ginjal usaha bareskrim polri farmasi</t>
+          <t>bareskrim polri panggil petinggi afi farma gagal ginjal akut bareskrim polri panggil petinggi pt afi farma kait gagal ginjal akut gagal ginjal akut duga asal obat sirup kandung etilen glikol dietilen glikol deg produksi pt afi farma bareskrim polri periksa pt afi farma bpom temu obat sirup sebab gagal ginjal akut temu bpom periksa gudang milik pt afi farma penggerebakan polisi sita bahan baku obat kandung deg penny obat temu bpom indikasi kandung zat bahaya salah dampak gagal ginjal akut obat afi farma paracetamol drop sirop kandung cair kimia bahaya lebih ambang batas sebab gagal ginjal akut gagal ginjal akut panggil polri bareskrim polri</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -799,17 +859,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>akut anak, gagal ginjal, perusahaan, bareskrim polri, farmasi</t>
+          <t>Gagal Ginjal Akut, Dipanggil, Polri, bareskrim polri, kasus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[21, 20, 18, 19, 22]</t>
+          <t>[21, 19, 22, 20, 23]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[21 22 20 18 19]</t>
+          <t>[19 21 22 20 23]</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -818,53 +878,63 @@
       <c r="K7" t="n">
         <v>0</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5 Hotel Terdekat Dari Pusat Kota Bandar Lampung Dengan Rating Memuaskan</t>
+          <t>Begini Modus Perusahaan Pemasok Bahan Baku Sirup yang Sebabkan Kasus Gagal Ginjal Akut, Aksinya Tak Terpuji..</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[25, 27, 28, 26, 29]</t>
+          <t>[21, 20, 18, 22, 23]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>hotel dekat pusat kota bandar lampung rating muas buat kalian sedang libur bandar lampung bingung cari hotel dekat kalian tenang beberapa rekomendasi hotel bisa kalian kunjugi pasti dekat pusat kota bandar lampung hotel whiz prime hotel whiz prime salah satu hotel baik dekat pusat kota bandar lampung bisa kalian coba hotel horison lampung hotel horison lampung hotel dua bisa kalian coba libur milik letak ada pusat kota bandar lampung jadi hotel horison salah satu pilih tepat hotel radisson lampung hotel radisson milik letak cukup strategis hubung langsung mall boemi kedaton juga dekat kampus aneka tempat kuliner rumah sakit belleza grand anugerah hotel grand anugerah milik akses cukup dekat bagai tempat kuliner grand cityhub hotel hotel lima ada dekat pusat kota bandar lampung bisa kalian cobaiin harga murah banyak promonya dekat mall akses angkut umum bagai leseh kuliner malam pusat kota inap hotel</t>
+          <t>modus usaha pasok bahan baku sirup sebab gagal ginjal akut aksi puji bareskrim polri modus cv samudra chemical pasok bahan baku obat sirup pt afi farma gagal ginjal akut sebab ratus anak indonesia tinggal dunia karo penmas divisi humas polri brigjen pol ahmad ramadhan hasil lidi temu barang bukti drum isi senyawa propilen glikol pg etilen glikol duga pes pt afi farma cv samudra chemical duga drum label dow palsu duga guna oplos zat cemar kandung lebih ambang batas pakat gagal ginjal akut dilidik bareskrim polri usaha periksa cv samudra chemical dikarenakanya temu puluh drum isi etilen glikol dietilen glikol deg gagal ginjal gagal ginjal akut modus usaha bareskrim polri</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ekonomi Bisnis</t>
+          <t>Berita utama</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pusat kota, penginapan, hotel</t>
+          <t>Kasus Gagal Ginjal, Gagal Ginjal Akut, Modus, Perusahaan, Bareskrim Polri</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[25, 26, 27, 28, 29]</t>
+          <t>[21, 18, 23, 20, 22]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[25 26 27 28 29]</t>
+          <t>[21 18 22 23 20]</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -873,53 +943,63 @@
       <c r="K8" t="n">
         <v>0</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Catat, Ini 6 Hotel di Lampung yang Dekat Dengan Pantai</t>
+          <t>Kasus Gagal Ginjal Akut, Ada Dua Perusahaan Farmasi Dilaporkan ke Bareskrim Polri</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[26, 24, 27, 28, 29]</t>
+          <t>[19, 21, 18, 22, 23]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>catat hotel lampung dekat pantai rasa sangat senang inap hotel dekat objek wisata nikmat suasana pantai indah buat kalian ingin libur sama orang cinta kalian kunjung beberapa rekomendasi hotel ada lampung lengkap wisata libur pantai indah hotel mutiara alam zandino club lebih kenal kru surf camp salah satu hotel lampung letak hadap langsung pantai pesisir indah pukau hotel sartika kru milik jarak sangat dekat bagai wisata libur pantai indah jadi hotel sartika kru layak pilih hotel sunset beach hotel pinggir pantai indah cocok banget buat kalian ingin inap sambil libur wisata pantai hotel tantra lampung dekat wisata libur pantai hotel tantra lampung juga salah satu hotel bintang fasilitas lengkap sangat muas lovina kru surf hotel bintang ada lampung wajib banget kalian pilih libur hotel lovina sangat dekat wisata pantai tanjung setia sangat indah bersih hotel beocean kru hotel beocean kru salah satu hotel paling banyak buru wisatawan kunjung lampung buat kalian tidak suka selancar unjung renang kolam renang ada beocean kru destinasi lampung wisata lampung inap hotel pantai</t>
+          <t>gagal ginjal akut usaha farmasi lapor bareskrim polri badan awas obat makan bpom lapor usaha farmasi bareskrim polri kait langgar atur memgenai gagal ginjal akut anak kepala bpom penny k lukito usaha farmasi lapor langgar buat obat cpob usaha gerak bidang farmasi langgar cpob pt yarindo farmatama pt universal pharmaceutical industries pt afi farma usaha proses tetap pidana bukti bahan baku senyawa kimia ambang batas aman kait rebak sakit gagal ginjal akut anak polisi memenaggil jabat badan awas obat makan bpom rebak sakit gagal ginjal akut anak polri sidi sidi polri temu bukti duga tindak pidana gagal ginjal akut anak bareskrim naik status lidi tahap sidi gagal ginjal gagal ginjal akut lapor usaha bareskrim polri farmasi</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>WISATA &amp; KULINER</t>
+          <t>Berita Utama</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Destinasi lampung, wisata lampung, Penginapan, hotel, pantai</t>
+          <t>Kasus Gagal Ginjal, Gagal Ginjal Akut, dilaporkan, perusahaan, bareskrim polri, farmasi</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[24, 27, 26, 28, 29]</t>
+          <t>[21, 23, 22, 18, 19]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[24 26 27 28 29]</t>
+          <t>[21 22 18 23 19]</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -928,53 +1008,63 @@
       <c r="K9" t="n">
         <v>0</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5 Hotel di Lampung dengan Pelayanan Terbaik, Sangat Memuaskan dan Wajib Kalian Coba</t>
+          <t>Pemasok Bahan Pelarut Sirup yang Diduga Sebabkan Gagal Ginjal Akut Akan Diperiksa Polri</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[25, 24, 27, 28, 29]</t>
+          <t>[19, 20, 18, 22, 23]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>hotel lampung layan baik sangat muas wajib kalian coba sangat senang rasa dapat layan baik inap hotel lampung hotel lampung layan baik sangat muas wajib kalian coba novotel lampung novotel lampung salah satu hotel ada bandar lampung milik layan baik sangat muas amalia hotel amalia hotel lampung selalu komitmen beri puas unjung selalu beri layan baik horison lampung hotel horison lampung milik nilai bersih baik mata masyarakat banyak tamu sudah kunjung beri ulas nilai sangat muas hotel golden tulip springhill hotel golden tulip springhill ada di bandar lampung hasil beri layan baik para unjung batiqa hotel lampung batiqa hotel lampung konsep bistro nuansa hangat hasil bius para tamu layan baik beri layan muas baik hotel</t>
+          <t>pasok bahan larut sirup duga sebab gagal ginjal akut periksa polri gagal ginjal akut dilidik bareskrim polri bareskrim polri periksa pasok bahan larut obat sirup usaha periksa cv samudra chemical dikarenakanya temu puluh drum isi etilen glikol dietilen glikol deg usaha bareskrim polri periksa masyarakat sekitat lokasi saksi berinidial e anak milik cv samudra chemical badan awas obat makan bpom lapor usaha farmasi bareskrim polri kait langgar atur memgenai gagal ginjal akut anak kepala bpom penny k lukito usaha farmasi lapor langgar buat obat cpob usaha gerak bidang farmasi langgar cpob pt yarindo farmatama pt universal pharmaceutical industries pt afi farma usaha proses tetap pidana bukti bahan baku senyawa kimia ambang batas aman rebak sakit gagal ginjal akut anak polri sidi sidi polri temu bukti duga tindak pidana gagal ginjal akut anak bareskrim naik status lidi tahap sidi periksa akut gagal ginjal bareskrim polri</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ekonomi Bisnis</t>
+          <t>Berita Utama</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>pelayanan memuaskan, terbaik, hotel</t>
+          <t>periksa, akut, gagal ginjal, bareskrim polri, kasus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[24, 27, 25, 28, 29]</t>
+          <t>[20, 19, 18, 23, 22]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[27 25 24 29 28]</t>
+          <t>[20 19 18 22 23]</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -983,53 +1073,63 @@
       <c r="K10" t="n">
         <v>0</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5 Hotel di Lampung dengan Pemandangan atau View Terbaik</t>
+          <t>Siap-siap, Bareskrim Polri Segera Umumkan Tersangka Kasus Gagal Ginjal Akut</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[25, 26, 24, 28, 29]</t>
+          <t>[19, 21, 20, 18, 23]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>hotel lampung pandang view baik rekomendasi hotel lampung pandang indah sangat pukau mata jadi pilih kalian ingin inap hotel emersia hotel salah satu hotel lampung milik pandang indah sangat pukau novotel lampung novotel lampung milik pesona pandang indah luar bisa para unjung inap novotel lampung kalian lihat pesona indah pandang laut biru gunung hotel bukit randu hotel bukit randu salah satu hotel bintang lampung milik pandang indah sangat tawan hati tinggi kurang lebih meter atas muka laut hotel milik pandang indah sudut kota derajat sangat pukau aston lampung city aston lampung city lokasi jl gatot subroto no garuntang teluk betung selatan bandar lampung suguh pandang luar biasa indah sheraton lampung hotel pandang indah milik hotel sheraton asal nuansa hijau pohon kelapa bikin damai rasa tenang ada sana view baik inap hotel</t>
+          <t>bareskrim polri umum sangka gagal ginjal akut bareskrim polri umum sangka gagal ginjal akut sebab ratus anak tinggal dunia tim sidik gabung bareskrim polri bpom naik status perkara sidi direktur tindak pidana dirtipidter bareskrim polri brigjen pol pipit rismanto tingkat status lidi sidi pt afi pharma usaha farmasi pt afi pharma duga produksi sedia farmasi jenis obat sirop kandung etilen glikol lebih ambang batas mg pt afi pharma produksi sedia obat jenis sirop merk paracetamol obat generik kandung lebih abang batas uji laboratorium badan awas obat makan bpom mg sidi gagal ginjal sidik polri produsen obat sirop pt afi pharma industri farmasi temu bahan baku propilen glikol lampau ambang batas aman tangan bpom akut sangka gagal ginjal polri bareskrim polri</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ekonomi Bisnis</t>
+          <t>Berita Utama</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>View Terbaik, penginapan, hotel</t>
+          <t>akut, tersangka, gagal ginjal, polri, bareskrim polri</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[25, 26, 24, 29, 28]</t>
+          <t>[18, 20, 21, 23, 19]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[26 25 29 24 28]</t>
+          <t>[20 21 19 23 18]</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -1038,53 +1138,63 @@
       <c r="K11" t="n">
         <v>0</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>7 Hotel Murah di Lampung, Lengkap Dengan Fasilitas Menarik yang Bikin Nyaman</t>
+          <t>Labfor Polri Turun Tangan Soal Dugaan Gagal Ginjal Akut Anak, Beberapa Pasien Diperiksa</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[25, 26, 27, 24, 29]</t>
+          <t>[18, 19, 20, 21, 22]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>hotel murah lampung lengkap fasilitas tarik bikin nyaman inap hotel murah lampung jadi pilih tepat kalian ingin lepas penat istirahat nyaman hotel murah lampung lengkap fasilitas tarik bikin unjung nyaman chandra inn hotel harga rp ribu omah akas syariah harga per malam inap kisar rp ribu bintang guest house per malam hanya rp ribu lengkap fasilitas bikin kalian nyaman flip flop hostel lampung mulai harga rp ribu per malam murah banget kan wisma amandari mulai rp an lengkap g hotel syariah g hotel syariah tawar rp ribu per malam kalian bisa rasa nas inap dengan layan baik ramah senang hotel andalas permai hotel andalas permai tawar bagai harga murah kisar rp ribu per malam bandar lampung inap hotel</t>
+          <t>labfor polri turun tangan duga gagal ginjal akut anak pasien periksa bareskrim polri lidi gagal ginjal akut anak labfor polri turun tangan periksa gagal ginjal akut anak labfor polri ajar hasil sampel pasien jalan awat medis rumah sakit proses lidi bpom kemenkes sidik ajar hasil sampel laboratorium indonesia pasien gagal ginjal senin oktober kutip fin id dedi sampel pasien gagal ginjal akut kumpul tim gabung bawa jakarta uji labfor polri telusur sebab gagal ginjal alami pasien dalam usaha farmasi periksa kait edar obat duga kandung etilen glikol dietilen glikol deg lebih ambang batas total usaha farmasi periksa bareskrim polri obat sirup duga sebab gagal ginjal akut sidik dalam duga lalai usaha sidik lengkap bukti penuh unsur duga tindak pidana akut anak gagal ginjal usaha bareskrim polri farmasi</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ekonomi Bisnis</t>
+          <t>Berita Utama</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>bandar lampung, penginapan, hotel</t>
+          <t>akut anak, gagal ginjal, perusahaan, bareskrim polri, farmasi</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[29, 24, 26, 25, 27]</t>
+          <t>[21, 20, 18, 19, 22]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[29 24 25 27 26]</t>
+          <t>[22 21 19 18 20]</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1093,33 +1203,43 @@
       <c r="K12" t="n">
         <v>0</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5 Hotel Berbintang di Bandar Lampung Tawarkan Promo Menarik Special Weekend</t>
+          <t>5 Hotel Terdekat Dari Pusat Kota Bandar Lampung Dengan Rating Memuaskan</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[24, 25, 26, 27, 28]</t>
+          <t>[25, 27, 28, 26, 29]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>hotel bintang bandar lampung tawar promo tarik special weekend beberapa hotel bintang bandar lampung tawar promo tarik special weekend khusus unjung ingin santa nikmat akhir pekan promo tarik special weekend hotel bintang ada bandar lampung swiss belhotel lampung swiss belhotel lampung tawar promo spesial weeekend promo paket kamar tipe deluxe harga spesial rp ribu sheraton lampung hotel sheraton lampung rupa salah satu inap baik ada kota bandar lampung promo september harga spesial rp ribu bukit randu hotel bukit randu tawar potong harga coorporate nila rp ribu type room superior superior king hotel astoria hotel astoria tawar tipe kamar superior nila rp ribu hotel whiz prime lampung beri harga khusus tipe kamar superior rate rp ribu promo hotel weekend</t>
+          <t>hotel dekat pusat kota bandar lampung rating muas libur bandar lampung bingung cari hotel dekat tenang ya rekomendasi hotel kunjugi pasti pusat kota bandar lampung hotel whiz prime hotel whiz prime salah hotel baik pusat kota bandar lampung coba hotel horison lampung hotel horison lampung hotel coba libur milik letak pusat kota bandar lampung jadi hotel horison salah pilih hotel radisson lampung hotel radisson milik letak strategis hubung langsung mall boemi kedaton kampus aneka kuliner rumah sakit belleza grand anugerah hotel grand anugerah milik akses kuliner grand cityhub hotel hotel pusat kota bandar lampung cobaiin ya harga murah promonya mall akses angkut leseh kuliner malam pusat kota inap hotel</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1129,17 +1249,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Promo, hotel, weekend</t>
+          <t>Pusat kota, penginapan, hotel</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[28, 24, 26, 27, 25]</t>
+          <t>[26, 25, 27, 28, 29]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[27 28 24 26 25]</t>
+          <t>[26 25 27 29 28]</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1148,53 +1268,63 @@
       <c r="K13" t="n">
         <v>0</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>UBL Riset Bersama PRTRRB - BRIN Rancang Bangun Mesin Pengemasan Otomatis Obat Radiofarmaka</t>
+          <t>Catat, Ini 6 Hotel di Lampung yang Dekat Dengan Pantai</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[30, 31, 32, 33, 35]</t>
+          <t>[26, 24, 27, 28, 29]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ubl riset sama prtrrb brin rancang bangun mesin emas otomatis obat radiofarmaka universitas bandar lampung ubl pusat riset teknologi radioisotop radiofarmaka biodosimetri prtrrb badan riset inovasi nasional brin ada riset sama rancang bangun mesin emas otomatis obat radiofarmaka sm edtmp terapi paliatif kanker tulang riset sama sebut laksana laboratorium mekatronika universitas bandar lampung kota bandar lampung laboratorium teknologi radioisotop radiofarmaka biodosimetri brin serpong tangerang selatan giat riset sama fasilitas hibah dana matching fund kedaireka tahun kepala pusat riset teknologi radioisotop radiofarmaka biodosimetri prtrrb badan riset inovasi nasional brin tita puspitasari brin sambut baik kerjasama universitas bandar lampung ubl harap hasil riset dapat manfaat tingkat produksi samarium edtmp riset ubl</t>
+          <t>catat hotel lampung pantai senang inap hotel objek wisata nikmat suasana pantai indah libur orang cinta kunjung rekomendasi hotel lampung lengkap wisata libur pantai indah hotel mutiara alam zandino club kenal kru surf camp salah hotel lampung letak hadap langsung pantai pesisir indah pukau hotel sartika kru milik jarak wisata libur pantai indah jadi hotel sartika kru layak pilih hotel sunset beach hotel pinggir pantai indah cocok banget inap libur wisata pantai hotel tantra lampung wisata libur pantai hotel tantra lampung salah hotel bintang fasilitas lengkap muas lovina kru surf hotel bintang lampung wajib banget pilih libur hotel lovina wisata pantai tanjung setia indah bersih hotel beocean kru hotel beocean kru salah hotel buru wisatawan kunjung lampung suka selancar unjung renang kolam renang beocean kru destinasi lampung wisata lampung inap hotel pantai</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pendidikan</t>
+          <t>WISATA &amp; KULINER</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Riset, UBL</t>
+          <t>Destinasi lampung, wisata lampung, Penginapan, hotel, pantai</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[32, 33, 30, 35, 31]</t>
+          <t>[24, 27, 26, 28, 29]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[32 33 30 35 31]</t>
+          <t>[26 24 27 28 29]</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -1203,53 +1333,63 @@
       <c r="K14" t="n">
         <v>0</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Pasca Kerusuhan Kanjuruhan, Polri Susun Aturan Pengamanan Sepakbola</t>
+          <t>5 Hotel di Lampung dengan Pelayanan Terbaik, Sangat Memuaskan dan Wajib Kalian Coba</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[43, 44, 45, 46, 47]</t>
+          <t>[25, 24, 27, 28, 29]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>pasca rusuh kanjuruhan polri susun atur aman sepakbola pasca rusuh jadi kanjuruhan arema fc vs baya polri susun aman tanding sepakbola akibat rusuh sebut orang tinggal dunia ini buat polri baharu regulasi aman sepakbola wakil komandan korps brimob wadankorbrimob polri irjen pol setyo boedi moempoeni harso aku susun atur kapolri kap dasar laku tugas aman tanding sepakbola indonesia atur buat bentuk evaluasi atas jadi tragedi kanjuruhan kabupaten malang jawa timur beberapa waktu lalu atur aman sepakbola atur sepakbola kap tragedi kanjuruhan polri</t>
+          <t>hotel lampung layan baik muas wajib coba senang layan baik inap hotel lampung hotel lampung layan baik muas wajib coba novotel lampung novotel lampung salah hotel bandar lampung milik layan baik muas amalia hotel amalia hotel lampung komitmen puas unjung layan baik horison lampung hotel horison lampung milik nilai bersih mata masyarakat tamu kunjung ulas nilai muas hotel golden tulip springhill hotel golden tulip springhill bandar lampung hasil layan baik unjung batiqa hotel lampung batiqa hotel lampung konsep bistro nuansa hangat hasil bius tamu layan baik layan muas baik hotel</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Berita Utama</t>
+          <t>Ekonomi Bisnis</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>aturan pengamanan sepakbola, aturan sepakbola, perkap, tragedi kanjuruhan, polri</t>
+          <t>pelayanan memuaskan, terbaik, hotel</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[43, 47, 46, 44, 45]</t>
+          <t>[24, 27, 25, 28, 29]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[43 47 44 45 46]</t>
+          <t>[27 24 25 28 29]</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1258,53 +1398,63 @@
       <c r="K15" t="n">
         <v>0</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ingin Keadilan, Tersangka Insiden Kanjuruhan Bantah Kunci Pintu Stadion dan Desak Polisi Buka CCTV</t>
+          <t>5 Hotel di Lampung dengan Pemandangan atau View Terbaik</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[42, 44, 45, 46, 47]</t>
+          <t>[25, 26, 24, 28, 29]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>adil sangka insiden kanjuruhan bantah kunci pintu stadion desak polisi buka cctv security officer stadion kanjuruhan malang jawa timur suko sutrisno aku tak pernah perintah tutup pintu stadion rusuh kanjuruhan oktober suko sutrisno kini tetap jadi sangka sama orang lain desak polisi bongkar rekam cctv bukti sebut tetap suko sutrisno sangka ungkap langsung kapolri jenderal listyo sigit prabowo tetap security officer stadion kanjuruhan malang bagai sangka juga duga tak lepas perintah steward tanding arema fc vs baya tinggal gerbang mereka jaga padahal steward tanding harus di posisi masing masing bisa buka pintu keluar stadion kanjuruhan maksimal sangka kanjuruhan kanjuruhan tragedi kanjuruhan stadion kanjuruhan</t>
+          <t>hotel lampung pandang view baik rekomendasi hotel lampung pandang indah pukau mata pilih inap hotel emersia hotel salah hotel lampung milik pandang indah pukau novotel lampung novotel lampung milik pesona pandang indah unjung inap novotel lampung pesona indah pandang laut biru gunung hotel bukit randu hotel bukit randu salah hotel bintang lampung milik pandang indah tawan hati tinggi meter muka laut hotel milik pandang indah sudut kota derajat pukau aston lampung city aston lampung city lokasi jl gatot subroto garuntang teluk betung selatan bandar lampung suguh pandang indah sheraton lampung hotel pandang indah milik hotel sheraton asal nuansa hijau pohon kelapa bikin damai tenang view baik inap hotel</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Berita Utama</t>
+          <t>Ekonomi Bisnis</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>tersangka kanjuruhan, kanjuruhan, tragedi kanjuruhan, stadion kanjuruhan</t>
+          <t>View Terbaik, penginapan, hotel</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[46, 44, 47, 42, 45]</t>
+          <t>[25, 24, 26, 29, 28]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[42 46 47 44 45]</t>
+          <t>[26 29 24 25 28]</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1313,53 +1463,63 @@
       <c r="K16" t="n">
         <v>0</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Modal Uang Rp 50 Ribu, Ternyata Sudah Bisa Nonton Saluran TV Digital Bareng Keluarga, Simak Caranya</t>
+          <t>7 Hotel Murah di Lampung, Lengkap Dengan Fasilitas Menarik yang Bikin Nyaman</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[48, 50, 51, 52, 53]</t>
+          <t>[25, 26, 27, 24, 29]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>modal uang rp ribu nyata bisa nonton salur tv digital bareng keluarga simak cara orang teknisi elektronik bagi alam ia tonton salur tv digital rumah modal ribu orang teknisi nama marta an lalu salur youtube nya kata perlu repot beli set top box stb mahal tonton siar tv digital indonesia transmisi televisi analog hapus perintah distribusi stb masyarakat kurang mampu bagi belum bagi perangkat stb sederhana rumah langkah pertama beli modul stb jual toko elektronik toko online harga modul stb jual rp ribu cukup jangkau hanya modul lanjut buat lembar triplek ukur modul stb kemudian lem modul stb rekat satu unit modul stb sederhana beli harga rp ribu kemudian sambung tv biasa tv tabung guna kabel rca kemudian guna antena belum hubung modul stb tangkap siar tv digital tv analog tv digital set top box</t>
+          <t>hotel murah lampung lengkap fasilitas tarik bikin nyaman inap hotel murah lampung pilih lepas penat istirahat nyaman hotel murah lampung lengkap fasilitas tarik bikin unjung nyaman chandra inn hotel harga rp ribu omah akas syariah harga malam inap kisar rp ribu bintang guest house malam rp ribu lengkap fasilitas bikin nyaman flip flop hostel lampung harga rp ribu malam murah banget wisma amandari rp lengkap g hotel syariah g hotel syariah tawar rp ribu malam rasa nas inap layan baik ramah senang hotel andalas permai hotel andalas permai tawar harga murah kisar rp ribu malam bandar lampung inap hotel</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Berita Utama</t>
+          <t>Ekonomi Bisnis</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>tv analog, tv digital, set top box</t>
+          <t>bandar lampung, penginapan, hotel</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[50, 48, 51, 53, 52]</t>
+          <t>[29, 24, 26, 25, 27]</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[50 52 53 48 51]</t>
+          <t>[29 26 25 24 27]</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1368,53 +1528,63 @@
       <c r="K17" t="n">
         <v>0</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ini Jadwal Penghentian Siaran TV Analog ASO Di Seluruh Indonesia, dan Cara Penggunaan TV Digital Pakai STB</t>
+          <t>5 Hotel Berbintang di Bandar Lampung Tawarkan Promo Menarik Special Weekend</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[48, 49, 51, 53, 52]</t>
+          <t>[24, 25, 26, 27, 28]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>jadwal henti siar tv analog aso seluruh indonesia cara guna tv digital pakai stb ini jadwal henti tv analog seluruh indonesia tahap cara guna tv digital pakai stb kominfo laku henti tv analog sejak oktober bagi wilayah jakarta bogor depok tangerang bekas jabodetabek kemudian henti siar tv analog seluruh dunia jadwal laku tahap sejak tanggal november sesuai undang undang no tahun cipta kerja henti siar televisi analog kenal analog switch off aso pertama wilayah sebut dapat siar tv analog akan henti siar dua siar tv digital operasi cakup tv analog ganti yang akhir sudah laku bagi bantu set top box stb bagi rumah yang tidak mampu wilayah sebut henti salur tv analog tv analog tv digital</t>
+          <t>hotel bintang bandar lampung tawar promo tarik special weekend hotel bintang bandar lampung tawar promo tarik special weekend khusus unjung santa nikmat pekan promo tarik special weekend hotel bintang bandar lampung swiss belhotel lampung swiss belhotel lampung tawar promo spesial weeekend promo paket kamar tipe deluxe harga spesial rp ribu sheraton lampung hotel sheraton lampung salah inap baik kota bandar lampung promo september harga spesial rp ribu bukit randu hotel bukit randu tawar potong harga coorporate nila rp ribu type room superior superior king hotel astoria hotel astoria tawar tipe kamar superior nila rp ribu hotel whiz prime lampung harga khusus tipe kamar superior rate rp ribu promo hotel weekend</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Berita Utama</t>
+          <t>Ekonomi Bisnis</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>penghentian saluran tv analog, tv analog, tv digital</t>
+          <t>Promo, hotel, weekend</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[48, 53, 49, 52, 51]</t>
+          <t>[28, 24, 26, 27, 25]</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[53 52 49 48 51]</t>
+          <t>[28 27 24 26 25]</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1423,53 +1593,63 @@
       <c r="K18" t="n">
         <v>0</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B19" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10 Merk Set Top Box Terbaik Untuk Tv Digital Resmi Bersertifikat Kominfo</t>
+          <t>UBL Riset Bersama PRTRRB - BRIN Rancang Bangun Mesin Pengemasan Otomatis Obat Radiofarmaka</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[52, 49, 48, 53, 50]</t>
+          <t>[30, 31, 32, 33, 35]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>merk set top box baik tv digital resmi sertifikat kominfo kamu sedang cari informasi set top box stb rekomendasi pakai rumah yuk cek sini tahu informasi kait set top box stb kualitas bisa buat nyaman tonton tv tahu set top box fungsi tangkap sinyal siar tv digital set top box pasang tv belum dukung standar siar digital baik tv tabung maupun layar datar merk set top box stb sertifikat kominfo nexmedia na dvb t mpeg hd polytron pdv t ichiko hd akar ads ads ads venus brio tanaka t matrix apple evercross stbi nextron nt d tr evinix h sertifikat merek tv digital set top box kominfo</t>
+          <t>ubl riset prtrrb brin rancang bangun mesin emas otomatis obat radiofarmaka universitas bandar lampung ubl pusat riset teknologi radioisotop radiofarmaka biodosimetri prtrrb badan riset inovasi nasional brin ada riset rancang bangun mesin emas otomatis obat radiofarmaka sm edtmp terapi paliatif kanker tulang riset laksana laboratorium mekatronika universitas bandar lampung kota bandar lampung laboratorium teknologi radioisotop radiofarmaka biodosimetri brin serpong tangerang selatan giat riset fasilitas hibah dana matching fund kedaireka kepala pusat riset teknologi radioisotop radiofarmaka biodosimetri prtrrb badan riset inovasi nasional brin tita puspitasari brin sambut kerjasama universitas bandar lampung ubl harap hasil riset manfaat tingkat produksi samarium edtmp riset ubl</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Berita Utama</t>
+          <t>Pendidikan</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>bersertifikat, merek, tv digital, set top box, kominfo</t>
+          <t>Riset, UBL</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[52, 49, 53, 50, 48]</t>
+          <t>[32, 33, 30, 35, 31]</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[49 52 50 48 53]</t>
+          <t>[32 33 30 35 31]</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1478,65 +1658,800 @@
       <c r="K19" t="n">
         <v>0</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B20" t="n">
+        <v>36</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Hyundai STARGAZER Resmi Hadir di Lampung</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[37, 38, 39, 40, 41]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>hyundai stargazer resmi hadir lampung hyundai stargazer resmi hadir lampung produk baru hyundai pamer pt shinari putra kencana dealer resmi mobil hyundai lampung produk resmi luncur pt hyundai motors indonesia hmid helat gaikindo indonesia international auto giias hyundai stargazer kendara empat produksi lokal pabrik hyundai motor deltamas cikarang jawa barat mpv harap tolak ukur kelas berkat tampil mikat interior lapang sesuai butuh masyarakat hmdi mobil baru dealer lampung hyundai stargazer gaikindo hyundai</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Otomotif</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>hmdi, mobil terbaru, dealer lampung, hyundai stargazer, gaikindo, hyundai</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[39, 37, 38, 40, 41]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[39 37 41 38 40]</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B21" t="n">
+        <v>42</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Pasca Kerusuhan Kanjuruhan, Polri Susun Aturan Pengamanan Sepakbola</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[43, 44, 45, 46, 47]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>pasca rusuh kanjuruhan polri susun atur aman sepakbola pasca rusuh kanjuruhan arema fc vs baya polri susun aman tanding sepakbola akibat rusuh orang tinggal dunia polri baharu regulasi aman sepakbola wakil komandan korps brimob wadankorbrimob polri irjen pol setyo boedi moempoeni harso aku susun atur kapolri kap dasar tugas aman tanding sepakbola indonesia atur bentuk evaluasi tragedi kanjuruhan kabupaten malang jawa timur atur aman sepakbola atur sepakbola kap tragedi kanjuruhan polri</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Berita Utama</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>aturan pengamanan sepakbola, aturan sepakbola, perkap, tragedi kanjuruhan, polri</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[43, 47, 44, 46, 45]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[43 47 44 45 46]</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B22" t="n">
+        <v>43</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ingin Keadilan, Tersangka Insiden Kanjuruhan Bantah Kunci Pintu Stadion dan Desak Polisi Buka CCTV</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[42, 44, 45, 46, 47]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>adil sangka insiden kanjuruhan bantah kunci pintu stadion desak polisi buka cctv security officer stadion kanjuruhan malang jawa timur suko sutrisno aku perintah tutup pintu stadion rusuh kanjuruhan oktober suko sutrisno tetap sangka orang desak polisi bongkar rekam cctv bukti tetap suko sutrisno sangka langsung kapolri jenderal listyo sigit prabowo tetap security officer stadion kanjuruhan malang sangka duga lepas perintah steward tanding arema fc vs baya tinggal gerbang jaga steward tanding posisi buka pintu stadion kanjuruhan maksimal sangka kanjuruhan kanjuruhan tragedi kanjuruhan stadion kanjuruhan</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Berita Utama</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>tersangka kanjuruhan, kanjuruhan, tragedi kanjuruhan, stadion kanjuruhan</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[46, 44, 47, 42, 45]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[42 46 47 44 45]</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B23" t="n">
+        <v>47</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Tragedi Kanjuruhan, Polisi Cari Penjual Dawet Viral</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[42, 43, 44, 45, 46]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>tragedi kanjuruhan polisi cari jual dawet viral tim investigasi polri usut edar rekam suara kait tragedi kanjuruhan perempuan aku jual dawet rekam perempuan cerita peristiwa stadion kanjuruhan malang jawa timur oktober irjen dedi prasetyo tim usut periksa rekam cctv pintu stadion kanjuruhan lokasi jual dawet dasar data wib sabtu oktober catat orang korban tragedi kanjuruhan irjen dedi prasetyo tambah orang korban luka korban tinggal dunia orang jual dawet tragedi kanjuruhan korban mabes polri viral</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Berita Utama</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>penjual dawet, tragedi kanjuruhan, korban, mabes polri, viral</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[43, 44, 46, 42, 45]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[44 43 42 46 45]</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B24" t="n">
+        <v>49</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Modal Uang Rp 50 Ribu, Ternyata Sudah Bisa Nonton Saluran TV Digital Bareng Keluarga, Simak Caranya</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[48, 50, 51, 52, 53]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>modal uang rp ribu nonton salur tv digital bareng keluarga simak teknisi elektronik bagi alam tonton salur tv digital rumah modal ribu ya teknisi nama marta salur youtube nya repot beli set box stb mahal tonton siar tv digital indonesia transmisi televisi analog hapus perintah distribusi stb masyarakat bagi perangkat stb sederhana rumah langkah beli modul stb jual toko elektronik toko online harga modul stb jual rp ribu jangkau modul lembar triplek ukur modul stb lem modul stb rekat unit modul stb sederhana beli harga rp ribu sambung tv tv tabung kabel rca antena hubung modul stb tangkap siar tv digital tv analog tv digital set box</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Berita Utama</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>tv analog, tv digital, set top box</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[50, 48, 51, 53, 52]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[48 50 52 53 51]</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B25" t="n">
+        <v>50</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ini Jadwal Penghentian Siaran TV Analog ASO Di Seluruh Indonesia, dan Cara Penggunaan TV Digital Pakai STB</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[48, 49, 51, 53, 52]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>jadwal henti siar tv analog aso indonesia guna tv digital pakai stb jadwal henti tv analog indonesia tahap tv digital pakai stb kominfo laku henti tv analog oktober bagi wilayah jakarta bogor depok tangerang bekas jabodetabek henti siar tv analog dunia jadwal tahap tanggal november sesuai undang undang cipta kerja henti siar televisi analog kenal analog switch aso wilayah siar tv analog henti siar siar tv digital operasi cakup tv analog ganti laku bagi bantu set box stb rumah wilayah henti salur tv analog tv analog tv digital</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Berita Utama</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>penghentian saluran tv analog, tv analog, tv digital</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[48, 53, 52, 49, 51]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[53 52 48 49 51]</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B26" t="n">
+        <v>51</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>10 Merk Set Top Box Terbaik Untuk Tv Digital Resmi Bersertifikat Kominfo</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[52, 49, 48, 53, 50]</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>merk set box baik tv digital resmi sertifikat kominfo cari informasi set box stb rekomendasi pakai rumah yuk cek informasi kait set box stb kualitas nyaman tonton tv set box fungsi tangkap sinyal siar tv digital set box pasang tv dukung standar siar digital tv tabung layar datar merk set box stb sertifikat kominfo nexmedia na dvb t mpeg hd polytron pdv t ichiko hd akar ads ads ads venus brio tanaka t matrix apple evercross stbi nextron nt d tr evinix h sertifikat merek tv digital set box kominfo</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Berita Utama</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>bersertifikat, merek, tv digital, set top box, kominfo</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[52, 49, 50, 53, 48]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>[50 49 53 52 48]</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B27" t="n">
         <v>52</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>WhatsApp ke Nomor Ini Biar Kamu Bisa Dapat Set Top Box Gratis</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>[49, 48, 51, 50, 53]</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>whatsapp nomor biar kamu dapat set top box gratis rasa masuk dalam golong masyarakat tak mampu perintah tahu buat program bagi bantu set top box gratis lalu menteri kominfo kini tahu masyarakat alih siar tv analog siar tv digital rupa amanat undang undang cipta kerja ini dapat uu cipta kerja pasal nomor sebut batas akhir henti siar televisi analog analog switch aso paling lambat tahun sejak undang dapat bantu upa set top box gratis bisa aju diri hubung posko diri menteri kominfo bisa datang posko respon cepat tangan bantu set top box bawa ktp kartu tanda duduk kk kartu keluarga yang asli himpun radarlampung co id laman publikasi menteri komunikasi informasi rabu november anda bisa hubung nomor telepon chat bot whatsapp nomor aju diri terima bantu set top box gratis uu cipta kerja siar tv analog siar tv digital stb set top box harga set top box gratis whatsapp perintah</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>whatsapp nomor biar set box gratis masuk golong masyarakat perintah program bagi bantu set box gratis menteri kominfo masyarakat alih siar tv analog siar tv digital amanat undang undang cipta kerja uu cipta kerja pasal nomor batas henti siar televisi analog analog switch aso lambat undang bantu set box gratis aju hubung posko diri menteri kominfo posko respon cepat tangan bantu set box bawa ktp kartu tanda duduk kk kartu keluarga asli himpun radarlampung id laman publikasi menteri komunikasi informasi rabu november hubung nomor telepon chat bot whatsapp nomor aju terima bantu set box gratis uu cipta kerja siar tv analog siar tv digital stb set box harga set box gratis whatsapp perintah</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Berita Utama</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>159, uu cipta kerja, siaran tv analog, siaran tv digital, stb, set top box, harga set top box, gratis, whatsapp, pemerintah</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>[51, 53, 50, 48, 49]</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[53, 50, 51, 48, 49]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[50 53 48 49 51]</t>
         </is>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B28" t="n">
+        <v>53</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ibu Ini Curhat soal TV Analog Disuntik Mati, Anak Nangis Tak Bisa Nonton Karena Tidak Mampu Beli Set Top Box</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>[48, 49, 50, 51, 52]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>curhat tv analog suntik mati anak nang nonton beli set box ramai bincang jagat maya video curhatan anak menang beli set box lansir video edar sang curhat lantar anak menang tonton televisi ya kominfo perintah henti siar tv analog ganti tv digital sesuai undang undang cipta kerja perintah alih siar televisi wilayah nkri alih siar televisi wilayan nkri sistem analog sistem digital november program analog switch aso tv analog tv digital kominfo viral presiden jokowi</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>VIRAL &amp; VIDEO</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>tv analog, tv digital, kominfo, viral, presiden jokowi</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[50, 48, 52, 51, 49]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>[50 52 48 49 51]</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B29" t="n">
+        <v>55</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Polisi Gagalkan Upaya Penyeludupan Psikotropika di Rutan, Begini Modusnya</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[56, 57, 54, 58, 59]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>polisi gagal upaya seludup psikotropika rutan modus upaya seludup psikotropika obat obat larang salah narapidana napi rutan kelas ii b menggala hasil gagal satu reserse narkoba satresnarkoba polres tulang bawang kasatres narkoba polres tulang bawang akp aris satrio sujatmiko peristiwa nl paket antar langsung kurir jasa kirim rumah laku anthony inka fedora warga desa kurung nyawa kecamataan gedong tata kabupaten sawar narapidana narkotika polisi sita barang bukti bb butir pil alprazolam butir pil riklona clonazepam butir pil calmlet alprazolam unit handphone hp android merek oppo warna putih iphone tugas informasi transaksi narkotika jenis sabu rumah umbul kemiling tugas gerebek hasil tangkap laku napi rutan narkoba</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Berita Utama</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>napi, rutan, narkoba</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[58, 59, 54, 57, 56]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[59 58 54 57 56]</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B30" t="n">
+        <v>56</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Soal 4 Pelaku Penyalahgunaan Narkoba yang Dibebaskan Polresta, BNNP Lampung Belum Terima Surat Asesmen</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[55, 57, 58, 59, 54]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>laku penyalahgunaan narkoba bebas polresta bnnp lampung terima surat asesmen badan narkotika nasional provinsi bnnp lampung terima surat rekomendasi asesmen satresnarkoba bandar lampung inisial ds hn fh rk laku duga penyalahgunaan narkotika jenis sabu sabu barang bukti bawah gram urine positif pidana tim asesmen padu tat hukum tat medis rehab mana rehab rawat jalan polresta bandar lampung aman orang penyalahguna narkotika tanggal oktober orang serah rehabilitasi panti ipwl bebas duga bnnp lampung duga polresta bandar lampung penyalahgunaan narkoba narkoba</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Hukum kriminal</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>dibebaskan, 4 terduga, bnnp lampung, terduga, polresta bandar lampung, penyalahgunaan narkoba, narkoba</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[59, 58, 55, 57, 54]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>[59 58 57 54 55]</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B31" t="n">
+        <v>59</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Warga Pringsewu Ditangkap, BB Sabu dan Bong</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[54, 55, 56, 57, 58]</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>warga pringsewu tangkap bb sabu bong anggota satresnarkoba polres pringsewu aman aw warga gadingrejo duga libat penyalahgunaan narkoba rekan kabur gerebek camat gadingrejo sabtu oktober polisi sita barang bukti sabu sisa pakai berat gram bong laku salah satu milik rumah hasil lari laku kabur kejar informasi masyarakat hasil lidi anggota satresnarkoba aman wilayah desa muara jaya camat sukadana rabu oktober polisi sita barang bukti plastik klip bening dalam isi kristal putih duga narkotika golong jenis sabu sabu gerebek polisi sita barang bukti plastik klip bening dalam isi kristal putih duga keras narkotika golong jenis sabu sabu polres pringsewu barang bukti satresnarkoba sabu narkoba</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Pringsewu</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>polres pringsewu, barang bukti, satresnarkoba, sabu, narkoba</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[58, 55, 56, 57, 54]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[55 58 56 54 57]</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>0</v>
       </c>
     </row>
